--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2022-06-21.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2022-06-21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="30">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>Taxi plage</t>
@@ -91,7 +91,7 @@
     <t>Spassighj'Agriate</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>U Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>taxi boat de la cabane du Lotu</t>
@@ -1345,8 +1342,8 @@
   <sheetPr/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3515,8 +3512,8 @@
   <sheetPr/>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3598,7 +3595,7 @@
     <row r="4" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -3847,7 +3844,7 @@
     <row r="17" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -3957,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4098,7 +4095,7 @@
     <row r="30" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -4208,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -4349,7 +4346,7 @@
     <row r="43" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C43" s="6">
         <v>1</v>
@@ -4364,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4601,7 +4598,7 @@
     <row r="56" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A56" s="4"/>
       <c r="B56" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C56" s="6">
         <v>0</v>
@@ -4851,7 +4848,7 @@
     <row r="69" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A69" s="4"/>
       <c r="B69" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C69" s="6">
         <v>0</v>
@@ -5100,7 +5097,7 @@
     <row r="82" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C82" s="6">
         <v>0</v>
@@ -5349,7 +5346,7 @@
     <row r="95" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A95" s="4"/>
       <c r="B95" s="8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C95" s="6">
         <v>0</v>
